--- a/DragPrediction/NL2VP DragX/1L/n/5/test.xlsx
+++ b/DragPrediction/NL2VP DragX/1L/n/5/test.xlsx
@@ -370,7 +370,7 @@
         <v>3</v>
       </c>
       <c r="E1">
-        <v>8.1675991735537194E-3</v>
+        <v>2.8965517239999999E-2</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -388,11 +388,11 @@
       </c>
       <c r="E2">
         <f>A2*$E$1</f>
-        <v>9.6090423952599174E-2</v>
+        <v>0.34077441515618639</v>
       </c>
       <c r="F2">
         <f>SUM(E2:E200)</f>
-        <v>2.922292536631053</v>
+        <v>10.363598047782355</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -410,7 +410,7 @@
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E41" si="0">A3*$E$1</f>
-        <v>0.8341986236916199</v>
+        <v>2.9583962315832619</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -428,7 +428,7 @@
       </c>
       <c r="E4">
         <f t="shared" si="0"/>
-        <v>9.6997386835227281E-2</v>
+        <v>0.343990862052585</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -446,7 +446,7 @@
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
-        <v>0.77214087029939249</v>
+        <v>2.7383150440075346</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -464,7 +464,7 @@
       </c>
       <c r="E6">
         <f t="shared" si="0"/>
-        <v>0.1059191004404752</v>
+        <v>0.37563076549935415</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -482,7 +482,7 @@
       </c>
       <c r="E7">
         <f t="shared" si="0"/>
-        <v>0.49372210798385957</v>
+        <v>1.7509326702614498</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -500,7 +500,7 @@
       </c>
       <c r="E8">
         <f t="shared" si="0"/>
-        <v>0.10491884724008678</v>
+        <v>0.37208347446504036</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -518,7 +518,7 @@
       </c>
       <c r="E9">
         <f t="shared" si="0"/>
-        <v>0.23020728660665704</v>
+        <v>0.81640552961629587</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -536,7 +536,7 @@
       </c>
       <c r="E10">
         <f t="shared" si="0"/>
-        <v>6.8924899257768596E-2</v>
+        <v>0.24443478619525677</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -554,7 +554,7 @@
       </c>
       <c r="E11">
         <f t="shared" si="0"/>
-        <v>6.1969796516727273E-2</v>
+        <v>0.21976925792056926</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -572,7 +572,7 @@
       </c>
       <c r="E12">
         <f t="shared" si="0"/>
-        <v>7.1962952116760334E-2</v>
+        <v>0.25520891584991617</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -590,7 +590,7 @@
       </c>
       <c r="E13">
         <f t="shared" si="0"/>
-        <v>6.0967223718173556E-2</v>
+        <v>0.21621374067935925</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -608,7 +608,7 @@
       </c>
       <c r="E14">
         <f t="shared" si="0"/>
-        <v>7.1271385159537196E-2</v>
+        <v>0.25275634757417087</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -626,7 +626,7 @@
       </c>
       <c r="E15">
         <f t="shared" si="0"/>
-        <v>5.4035521148764469E-2</v>
+        <v>0.19163119861156436</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -644,7 +644,7 @@
       </c>
       <c r="E16">
         <f t="shared" si="0"/>
-        <v>0.10557191213480578</v>
+        <v>0.37439949929251626</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -662,7 +662,7 @@
       </c>
       <c r="E17">
         <f t="shared" si="0"/>
-        <v>1.4069955554318182E-2</v>
+        <v>4.9897593101072196E-2</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -680,7 +680,7 @@
       </c>
       <c r="E18">
         <f t="shared" si="0"/>
-        <v>5.3991718314396697E-2</v>
+        <v>0.19147585654260624</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -698,7 +698,7 @@
       </c>
       <c r="E19">
         <f t="shared" si="0"/>
-        <v>-8.37838040542562E-2</v>
+        <v>-0.29713030343412677</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -716,7 +716,7 @@
       </c>
       <c r="E20">
         <f t="shared" si="0"/>
-        <v>5.7888128673334711E-2</v>
+        <v>0.2052940593005689</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -734,7 +734,7 @@
       </c>
       <c r="E21">
         <f t="shared" si="0"/>
-        <v>-7.3403561426590908E-2</v>
+        <v>-0.26031788274622458</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -752,7 +752,7 @@
       </c>
       <c r="E22">
         <f t="shared" si="0"/>
-        <v>5.5032686996665289E-2</v>
+        <v>0.19516754068036146</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -770,7 +770,7 @@
       </c>
       <c r="E23">
         <f t="shared" si="0"/>
-        <v>-6.1935623281785125E-2</v>
+        <v>-0.21964806619643712</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -788,7 +788,7 @@
       </c>
       <c r="E24">
         <f t="shared" si="0"/>
-        <v>5.3790648357942152E-2</v>
+        <v>0.19076278343919192</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -806,7 +806,7 @@
       </c>
       <c r="E25">
         <f t="shared" si="0"/>
-        <v>-0.1361593831849835</v>
+        <v>-0.48287469514941977</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -824,7 +824,7 @@
       </c>
       <c r="E26">
         <f t="shared" si="0"/>
-        <v>6.0335263899719008E-2</v>
+        <v>0.21397256274843152</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -842,7 +842,7 @@
       </c>
       <c r="E27">
         <f t="shared" si="0"/>
-        <v>4.0754163629851237E-2</v>
+        <v>0.14453028413104863</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -860,7 +860,7 @@
       </c>
       <c r="E28">
         <f t="shared" si="0"/>
-        <v>5.9707355210454546E-2</v>
+        <v>0.2117457517140548</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -878,7 +878,7 @@
       </c>
       <c r="E29">
         <f t="shared" si="0"/>
-        <v>3.8156842589863633E-2</v>
+        <v>0.1353191627521769</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -896,7 +896,7 @@
       </c>
       <c r="E30">
         <f t="shared" si="0"/>
-        <v>5.4807269427074382E-2</v>
+        <v>0.19436812137005471</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -914,7 +914,7 @@
       </c>
       <c r="E31">
         <f t="shared" si="0"/>
-        <v>-1.4004982302892564E-3</v>
+        <v>-4.9667172411428E-3</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -932,7 +932,7 @@
       </c>
       <c r="E32">
         <f t="shared" si="0"/>
-        <v>2.7453236543318184E-2</v>
+        <v>9.735996827122588E-2</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -950,7 +950,7 @@
       </c>
       <c r="E33">
         <f t="shared" si="0"/>
-        <v>-7.0209817792152907E-2</v>
+        <v>-0.24899161240193637</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -968,7 +968,7 @@
       </c>
       <c r="E34">
         <f t="shared" si="0"/>
-        <v>4.8366864283152892E-2</v>
+        <v>0.17152791309528026</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -986,7 +986,7 @@
       </c>
       <c r="E35">
         <f t="shared" si="0"/>
-        <v>-0.15009658258233474</v>
+        <v>-0.53230148273327305</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1004,7 +1004,7 @@
       </c>
       <c r="E36">
         <f t="shared" si="0"/>
-        <v>4.4486413413000005E-2</v>
+        <v>0.15776630895800456</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1022,7 +1022,7 @@
       </c>
       <c r="E37">
         <f t="shared" si="0"/>
-        <v>-0.14735576499246694</v>
+        <v>-0.52258146618201162</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1040,7 +1040,7 @@
       </c>
       <c r="E38">
         <f t="shared" si="0"/>
-        <v>3.5884126443830579E-2</v>
+        <v>0.12725921792497452</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1058,7 +1058,7 @@
       </c>
       <c r="E39">
         <f t="shared" si="0"/>
-        <v>-0.14087958576416529</v>
+        <v>-0.499614388941726</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1076,7 +1076,7 @@
       </c>
       <c r="E40">
         <f t="shared" si="0"/>
-        <v>1.3472593685962809E-2</v>
+        <v>4.7779113101173075E-2</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1094,10 +1094,11 @@
       </c>
       <c r="E41">
         <f t="shared" si="0"/>
-        <v>-9.9578446185260336E-2</v>
+        <v>-0.35314431308663186</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>